--- a/crRNA_search_results_3.xlsx
+++ b/crRNA_search_results_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,18 +470,18 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AAGCTCGACGGGGTGGTGCATTCGATTG</t>
+          <t>GCAACAAGCTCGACGGGGTGGTGCATTC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4.712121963500977</v>
+        <v>2.996067047119141</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.817598342895508</v>
+        <v>-1.919883728027344</v>
       </c>
     </row>
     <row r="3">
@@ -494,18 +494,18 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AGCTCGACGGGGTGGTGCATTCGATTGG</t>
+          <t>GGGCAACAAGCTCGACGGGGTGGTGCAT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4.402884483337402</v>
+        <v>2.572131872177124</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.70189094543457</v>
+        <v>-1.061228513717651</v>
       </c>
     </row>
     <row r="4">
@@ -518,18 +518,18 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CAAGCTCGACGGGGTGGTGCATTCGATT</t>
+          <t>GGCAACAAGCTCGACGGGGTGGTGCATT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4.009207725524902</v>
+        <v>2.445408344268799</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.184885025024414</v>
+        <v>-1.511665344238281</v>
       </c>
     </row>
     <row r="5">
@@ -542,18 +542,18 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1254</v>
+        <v>1245</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>GCAACAAGCTCGACGGGGTGGTGCATTC</t>
+          <t>TCGGGGCGGGCAACAAGCTCGACGGGGT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2.99606728553772</v>
+        <v>2.375740528106689</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.919883489608765</v>
+        <v>-2.389282703399658</v>
       </c>
     </row>
     <row r="6">
@@ -562,22 +562,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>INH_inhA0_WT</t>
+          <t>INH_inhA8</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1261</v>
+        <v>1245</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>GCTCGACGGGGTGGTGCATTCGATTGGG</t>
+          <t>TCGGGGCGGGCAACAAGCTCGACGGGGT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2.987120151519775</v>
+        <v>2.396053791046143</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.193581581115723</v>
+        <v>-2.382511615753174</v>
       </c>
     </row>
     <row r="7">
@@ -586,22 +586,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>INH_inhA0_WT</t>
+          <t>INH_inhA8</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>GGGCAACAAGCTCGACGGGGTGGTGCAT</t>
+          <t>GCAACAAGCTCGACGGGGTGGTGCATGC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2.572131633758545</v>
+        <v>2.324783802032471</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.06122875213623</v>
+        <v>-1.727719306945801</v>
       </c>
     </row>
     <row r="8">
@@ -610,22 +610,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>INH_inhA0_WT</t>
+          <t>INH_inhA8</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>GGCAACAAGCTCGACGGGGTGGTGCATT</t>
+          <t>CGGGGCGGGCAACAAGCTCGACGGGGTG</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2.445408344268799</v>
+        <v>2.222589492797852</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.511665344238281</v>
+        <v>-2.171067237854004</v>
       </c>
     </row>
     <row r="9">
@@ -634,310 +634,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>INH_inhA0_WT</t>
+          <t>INH_inhA8</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1243</v>
+        <v>1257</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>GATCGGGGCGGGCAACAAGCTCGACGGG</t>
+          <t>ACAAGCTCGACGGGGTGGTGCATGCGAT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2.38740611076355</v>
+        <v>2.197758674621582</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.357788801193237</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>INH_inhA0_WT</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1245</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>TCGGGGCGGGCAACAAGCTCGACGGGGT</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>2.375740051269531</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-2.389282703399658</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>INH_inhA0_WT</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1257</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ACAAGCTCGACGGGGTGGTGCATTCGAT</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>2.291481494903564</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-1.334364891052246</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>INH_inhA8</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1260</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>AGCTCGACGGGGTGGTGCATGCGATTGG</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>4.561646461486816</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-2.94193696975708</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>INH_inhA8</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1259</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>AAGCTCGACGGGGTGGTGCATGCGATTG</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>4.199873924255371</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-2.871727228164673</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>INH_inhA8</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>1258</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>CAAGCTCGACGGGGTGGTGCATGCGATT</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>3.934489727020264</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-2.241177558898926</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>INH_inhA8</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1245</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>TCGGGGCGGGCAACAAGCTCGACGGGGT</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>2.396054029464722</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-2.382511377334595</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>INH_inhA8</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1261</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>GCTCGACGGGGTGGTGCATGCGATTGGG</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>2.357245445251465</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-1.264852523803711</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>INH_inhA8</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1243</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>GATCGGGGCGGGCAACAAGCTCGACGGG</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>2.342980146408081</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-2.372597455978394</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>INH_inhA8</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>1254</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>GCAACAAGCTCGACGGGGTGGTGCATGC</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>2.324783802032471</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-1.727719306945801</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>INH_inhA8</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>1246</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>CGGGGCGGGCAACAAGCTCGACGGGGTG</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>2.222589731216431</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-2.171067476272583</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>INH_inhA8</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>1257</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>ACAAGCTCGACGGGGTGGTGCATGCGAT</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>2.197758197784424</v>
-      </c>
-      <c r="F20" t="n">
         <v>-1.432448387145996</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>INH_inhA8</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>1248</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>GGGCGGGCAACAAGCTCGACGGGGTGGT</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>1.892173051834106</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-1.689061403274536</v>
       </c>
     </row>
   </sheetData>
